--- a/Historique.xlsx
+++ b/Historique.xlsx
@@ -7,12 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Historique Reclamation" r:id="rId3" sheetId="1"/>
+    <sheet name="Historique Offre Emploi" r:id="rId4" sheetId="2"/>
+    <sheet name="Historique Offre Stage" r:id="rId5" sheetId="3"/>
+    <sheet name="Historique Freelancer" r:id="rId6" sheetId="4"/>
+    <sheet name="Historique Societe" r:id="rId7" sheetId="5"/>
+    <sheet name="Historique Demande Emploi" r:id="rId8" sheetId="6"/>
+    <sheet name="Historique Demande Stage" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>Janvier</t>
   </si>
@@ -55,13 +61,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -90,12 +132,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,13 +231,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n" s="2">
         <v>0.0</v>
@@ -195,6 +261,624 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.14453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.14453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.14453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.14453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="10">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.14453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="12">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.14453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.28125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="14">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="13">
         <v>0.0</v>
       </c>
     </row>
